--- a/InputFiles/CDS/TC19_CDS_Filter_PHSAccession-phs002517.xlsx
+++ b/InputFiles/CDS/TC19_CDS_Filter_PHSAccession-phs002517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A702CA-A13D-4145-9EAD-67D7A3B9D781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE5925-D59F-465C-A605-4A9B3663F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -874,20 +874,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.3046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,11 +955,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
